--- a/data/target_recipes.xlsx
+++ b/data/target_recipes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\projects\irs_targets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68AB306-46E2-48AE-A9BA-FEBA5CD80FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F71A1-92E9-47F6-A62C-778CAD57BCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="6" xr2:uid="{227C4D36-AC26-4B74-9955-EEE102DB4F9A}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1067">
   <si>
     <t>table</t>
   </si>
@@ -3361,6 +3361,18 @@
   </si>
   <si>
     <t>Number of returns with state local income taxes or general sales taxes</t>
+  </si>
+  <si>
+    <t>e18500</t>
+  </si>
+  <si>
+    <t>e18500_nnz</t>
+  </si>
+  <si>
+    <t>e00650</t>
+  </si>
+  <si>
+    <t>e00650_nnz</t>
   </si>
 </sst>
 </file>
@@ -3912,24 +3924,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3966,6 +3960,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3989,6 +3992,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -21316,7 +21328,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A18" activeCellId="1" sqref="A17 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24221,13 +24233,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAD54BD-F9F3-46AA-BDDF-08C8D98E21F4}">
-  <dimension ref="E1:Q68"/>
+  <dimension ref="E1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24754,14 +24766,18 @@
         <v>1048</v>
       </c>
       <c r="F33" t="s">
-        <v>580</v>
+        <v>1065</v>
       </c>
       <c r="G33" t="s">
-        <v>580</v>
-      </c>
-      <c r="H33" t="s">
-        <v>581</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="3"/>
       <c r="N33" s="60"/>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.3">
@@ -24769,14 +24785,16 @@
         <v>1048</v>
       </c>
       <c r="F34" t="s">
-        <v>580</v>
+        <v>1065</v>
       </c>
       <c r="G34" t="s">
-        <v>582</v>
-      </c>
-      <c r="H34" t="s">
-        <v>583</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="N34" s="60"/>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.3">
@@ -24787,10 +24805,10 @@
         <v>580</v>
       </c>
       <c r="G35" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="N35" s="60"/>
     </row>
@@ -24802,10 +24820,10 @@
         <v>580</v>
       </c>
       <c r="G36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H36" t="s">
-        <v>235</v>
+        <v>583</v>
       </c>
       <c r="N36" s="60"/>
     </row>
@@ -24817,10 +24835,10 @@
         <v>580</v>
       </c>
       <c r="G37" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N37" s="60"/>
     </row>
@@ -24832,220 +24850,220 @@
         <v>580</v>
       </c>
       <c r="G38" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N38" s="60"/>
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>1048</v>
+      </c>
       <c r="F39" t="s">
-        <v>1042</v>
+        <v>580</v>
       </c>
       <c r="G39" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I39" t="s">
-        <v>853</v>
-      </c>
-      <c r="J39" t="s">
-        <v>853</v>
-      </c>
-      <c r="K39" t="s">
-        <v>853</v>
+        <v>584</v>
+      </c>
+      <c r="H39" t="s">
+        <v>233</v>
       </c>
       <c r="N39" s="60"/>
     </row>
-    <row r="40" spans="5:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>1048</v>
       </c>
       <c r="F40" t="s">
+        <v>580</v>
+      </c>
+      <c r="G40" t="s">
+        <v>585</v>
+      </c>
+      <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="N40" s="60"/>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I41" t="s">
+        <v>853</v>
+      </c>
+      <c r="J41" t="s">
+        <v>853</v>
+      </c>
+      <c r="K41" t="s">
+        <v>853</v>
+      </c>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="5:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F42" t="s">
         <v>574</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G42" t="s">
         <v>574</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H42" t="s">
         <v>257</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="N40" s="60"/>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>1048</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>575</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>255</v>
-      </c>
-      <c r="N41" s="60"/>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G42" t="s">
-        <v>588</v>
-      </c>
-      <c r="H42" t="s">
-        <v>588</v>
-      </c>
-      <c r="N42" s="60"/>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G43" t="s">
-        <v>589</v>
-      </c>
-      <c r="H43" t="s">
-        <v>590</v>
       </c>
       <c r="N43" s="60"/>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H44" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="N44" s="60"/>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H45" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="N45" s="60"/>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H46" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="N46" s="60"/>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" t="s">
+        <v>598</v>
+      </c>
+      <c r="N47" s="60"/>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>591</v>
+      </c>
+      <c r="H48" t="s">
+        <v>592</v>
+      </c>
+      <c r="N48" s="60"/>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
         <v>593</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H49" t="s">
         <v>594</v>
       </c>
-      <c r="N47" s="60"/>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
+      <c r="N49" s="60"/>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
         <v>1048</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>576</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H50" t="s">
         <v>294</v>
       </c>
-      <c r="N48" s="60"/>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
+      <c r="N50" s="60"/>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
         <v>1048</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>577</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" t="s">
         <v>291</v>
-      </c>
-      <c r="N49" s="60"/>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G50" t="s">
-        <v>599</v>
-      </c>
-      <c r="H50" t="s">
-        <v>600</v>
-      </c>
-      <c r="N50" s="60"/>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G51" t="s">
-        <v>601</v>
-      </c>
-      <c r="H51" t="s">
-        <v>602</v>
       </c>
       <c r="N51" s="60"/>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H52" t="s">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="N52" s="60"/>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H53" t="s">
-        <v>275</v>
+        <v>602</v>
       </c>
       <c r="N53" s="60"/>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N54" s="60"/>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
+        <v>606</v>
+      </c>
+      <c r="H55" t="s">
+        <v>275</v>
+      </c>
+      <c r="N55" s="60"/>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>603</v>
+      </c>
+      <c r="H56" t="s">
+        <v>273</v>
+      </c>
+      <c r="N56" s="60"/>
+    </row>
+    <row r="57" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
         <v>604</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H57" t="s">
         <v>271</v>
-      </c>
-      <c r="N55" s="60"/>
-    </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E56" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G56" t="s">
-        <v>555</v>
-      </c>
-      <c r="H56" t="s">
-        <v>195</v>
-      </c>
-      <c r="K56" t="s">
-        <v>196</v>
-      </c>
-      <c r="N56" s="60"/>
-    </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G57" t="s">
-        <v>556</v>
-      </c>
-      <c r="H57" t="s">
-        <v>145</v>
-      </c>
-      <c r="K57" t="s">
-        <v>146</v>
       </c>
       <c r="N57" s="60"/>
     </row>
@@ -25054,13 +25072,13 @@
         <v>1048</v>
       </c>
       <c r="G58" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="N58" s="60"/>
     </row>
@@ -25069,13 +25087,13 @@
         <v>1048</v>
       </c>
       <c r="G59" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="K59" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="N59" s="60"/>
     </row>
@@ -25084,77 +25102,82 @@
         <v>1048</v>
       </c>
       <c r="G60" t="s">
+        <v>557</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+      <c r="K60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N60" s="60"/>
+    </row>
+    <row r="61" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G61" t="s">
+        <v>558</v>
+      </c>
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="K61" t="s">
+        <v>179</v>
+      </c>
+      <c r="N61" s="60"/>
+    </row>
+    <row r="62" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G62" t="s">
         <v>110</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H62" t="s">
         <v>110</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K62" t="s">
         <v>111</v>
       </c>
-      <c r="N60" s="60"/>
-    </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G61" t="s">
+      <c r="N62" s="60"/>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
         <v>619</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H63" t="s">
         <v>100</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K63" t="s">
         <v>99</v>
       </c>
-      <c r="N61" s="60"/>
-    </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G62" t="s">
+      <c r="N63" s="60"/>
+    </row>
+    <row r="64" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
         <v>620</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K64" t="s">
         <v>141</v>
       </c>
-      <c r="N62" s="60"/>
-    </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>449</v>
-      </c>
+      <c r="N64" s="60"/>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>1048</v>
       </c>
       <c r="F65" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="G65" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>393</v>
+        <v>1050</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.3">
@@ -25162,10 +25185,10 @@
         <v>1048</v>
       </c>
       <c r="G66" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>395</v>
+        <v>1049</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.3">
@@ -25173,13 +25196,13 @@
         <v>1048</v>
       </c>
       <c r="F67" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G67" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1060</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.3">
@@ -25187,15 +25210,65 @@
         <v>1048</v>
       </c>
       <c r="G68" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G70" t="s">
         <v>1058</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>1059</v>
       </c>
     </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:Q62">
-    <sortCondition ref="G3:G62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:Q64">
+    <sortCondition ref="G3:G64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25489,155 +25562,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="75" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="63" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="75" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="86" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="86" t="s">
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="63" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="86" t="s">
         <v>485</v>
       </c>
       <c r="R5" s="90" t="s">
@@ -25650,40 +25723,40 @@
       </c>
     </row>
     <row r="6" spans="1:28" s="16" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="66" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="75" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="67"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="S6" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="T6" s="69" t="s">
+      <c r="T6" s="63" t="s">
         <v>483</v>
       </c>
       <c r="U6" s="94"/>
@@ -25696,26 +25769,26 @@
       <c r="AB6" s="15"/>
     </row>
     <row r="7" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="68"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="96"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="68"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="88"/>
       <c r="R7" s="96"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:28" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29692,29 +29765,29 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
     </row>
     <row r="72" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="89" t="s">
@@ -29742,54 +29815,54 @@
       <c r="U72" s="89"/>
     </row>
     <row r="73" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
     </row>
     <row r="74" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
     </row>
     <row r="75" spans="1:21" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F75" s="48"/>
@@ -31322,8 +31395,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A72:U72"/>
-    <mergeCell ref="A73:U73"/>
     <mergeCell ref="A74:U74"/>
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="R5:T5"/>
@@ -31338,6 +31409,14 @@
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:O7"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A72:U72"/>
+    <mergeCell ref="A73:U73"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="A71:U71"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
@@ -31351,12 +31430,6 @@
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:A29 A32:A49">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
@@ -31410,107 +31483,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="67" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
     </row>
     <row r="4" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="75" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="63" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="75" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="98" t="s">
         <v>138</v>
       </c>
@@ -31530,35 +31603,35 @@
       <c r="U4" s="99"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="63" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="86" t="s">
         <v>485</v>
       </c>
       <c r="R5" s="90" t="s">
@@ -31571,65 +31644,65 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="66" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="75" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="67"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="S6" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="T6" s="69" t="s">
+      <c r="T6" s="63" t="s">
         <v>483</v>
       </c>
       <c r="U6" s="94"/>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="68"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="96"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="68"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="88"/>
       <c r="R7" s="96"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35606,29 +35679,29 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
     </row>
     <row r="72" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="89" t="s">
@@ -35656,54 +35729,54 @@
       <c r="U72" s="89"/>
     </row>
     <row r="73" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
     </row>
     <row r="75" spans="1:21" ht="8.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F75" s="48"/>
@@ -37236,9 +37309,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
     <mergeCell ref="A74:U74"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="A71:U71"/>
@@ -37252,9 +37322,6 @@
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="B3:F3"/>
@@ -37268,9 +37335,15 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="A12:A29 A32:A49">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="between">
